--- a/进度.xlsx
+++ b/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2987EBAE-942B-4803-9930-C16732D7339F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8642BC-45B1-4899-B276-14CF1BCC572F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,10 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -200,6 +197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -499,123 +499,123 @@
     <col min="6" max="6" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="28.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="28.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>43614</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>43615</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>43616</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>43623</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4">
+      <c r="D6" s="1"/>
+      <c r="E6" s="3">
         <v>0.2</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>43619</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>43630</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8642BC-45B1-4899-B276-14CF1BCC572F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3FE04-0D97-4320-B7D9-1D4A7037B0E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,9 @@
       <c r="C3" s="4">
         <v>43614</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4">
+        <v>43613</v>
+      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -559,9 +561,11 @@
       <c r="C4" s="4">
         <v>43615</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4">
+        <v>43613</v>
+      </c>
       <c r="E4" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -573,8 +577,12 @@
       <c r="C5" s="4">
         <v>43616</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="4">
+        <v>43613</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3FE04-0D97-4320-B7D9-1D4A7037B0E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4C6FF-6043-4E5E-B13D-BD31FEEC45E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>新闻爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛数据页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛页面接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建阿里云环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +210,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,10 +504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,7 +541,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -538,7 +559,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -554,7 +575,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -570,7 +591,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -586,7 +607,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -602,7 +623,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -614,7 +635,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -624,6 +645,42 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43613</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43613</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43614</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43614</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43617</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4C6FF-6043-4E5E-B13D-BD31FEEC45E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DE707F-DC34-43AB-AFC9-EEEA9388F5D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="inProcess" sheetId="1" r:id="rId1"/>
+    <sheet name="todolist" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +96,34 @@
   </si>
   <si>
     <t>搭建阿里云环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis集群搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络不通，在集群跳转的时候，会出现返回给客户端内网ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关跳转后出现了https变http的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建jenkins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +248,21 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,10 +548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -541,7 +585,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -559,7 +603,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -575,7 +619,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -591,7 +635,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,7 +651,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -623,7 +667,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,7 +679,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -680,6 +724,26 @@
       </c>
       <c r="C11" s="4">
         <v>43617</v>
+      </c>
+      <c r="D11" s="14">
+        <v>43619</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43620</v>
+      </c>
+      <c r="D12" s="4">
+        <v>39970</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -778,4 +842,261 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8234DD4C-CBBA-4E99-A561-44C58A294477}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C7">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FC0A2349-B4EF-4506-B5FD-BF7A9E31AECA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C21">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E3385AF-C683-447A-9CF3-C078966C3085}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C21">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B399C7EF-0C9B-4994-81A0-7FB4754BE937}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9484AA21-91BB-40EC-B929-F98F14C86931}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC0A2349-B4EF-4506-B5FD-BF7A9E31AECA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E3385AF-C683-447A-9CF3-C078966C3085}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C8:C21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B399C7EF-0C9B-4994-81A0-7FB4754BE937}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C8:C21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9484AA21-91BB-40EC-B929-F98F14C86931}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>